--- a/backend/uploads/ExtractedFiles/3-11-23/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/3-11-23/1250.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="120" yWindow="30" windowWidth="11480" windowHeight="7230"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Emp_code</t>
   </si>
@@ -43,15 +41,6 @@
   </si>
   <si>
     <t>Akash Dandge</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>AA</t>
   </si>
   <si>
     <t>XA</t>
@@ -394,16 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -436,230 +422,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>45225</v>
+        <v>45233</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>9.17</v>
       </c>
       <c r="E2">
-        <v>18.09</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45226</v>
-      </c>
-      <c r="D3">
-        <v>9.11</v>
-      </c>
-      <c r="E3">
-        <v>18.2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45227</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45228</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45229</v>
-      </c>
-      <c r="D6">
-        <v>9.17</v>
-      </c>
-      <c r="E6">
-        <v>18.43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>9.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45230</v>
-      </c>
-      <c r="D7">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="E7">
-        <v>18.54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45231</v>
-      </c>
-      <c r="D8">
-        <v>9.23</v>
-      </c>
-      <c r="E8">
-        <v>16.149999999999999</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>6.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45232</v>
-      </c>
-      <c r="D9">
-        <v>9.19</v>
-      </c>
-      <c r="E9">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>9.14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45233</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>9.4</v>
+        <v>9.02</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>